--- a/biology/Zoologie/Alapi_à_cravate_noire/Alapi_à_cravate_noire.xlsx
+++ b/biology/Zoologie/Alapi_à_cravate_noire/Alapi_à_cravate_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alapi_%C3%A0_cravate_noire</t>
+          <t>Alapi_à_cravate_noire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myrmoderus ferrugineus
 L'Alapi à cravate noire (Myrmoderus ferrugineux) est une espèce d’oiseaux de l’ordre des Passériformes et de la famille des Thamnophilidés. Cette espèce est présente à l'est de l’Amérique du Sud et a été décrite par Müller en 1776.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alapi_%C3%A0_cravate_noire</t>
+          <t>Alapi_à_cravate_noire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2018, l'espèce a été rattachée au genre Myrmoderus par le Congrès ornithologique international[1], toutefois certaines références[3],[4],[5],[6], paramètre de Bioref « uBIO » non reconnu ,[7] la rattachent toujours au genre Myrmeciza.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, l'espèce a été rattachée au genre Myrmoderus par le Congrès ornithologique international, toutefois certaines références paramètre de Bioref « uBIO » non reconnu , la rattachent toujours au genre Myrmeciza.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alapi_%C3%A0_cravate_noire</t>
+          <t>Alapi_à_cravate_noire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ quinze centimètres pour un poids d'environ vingt-huit grammes.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alapi_%C3%A0_cravate_noire</t>
+          <t>Alapi_à_cravate_noire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans le nord du Brésil, en Guyane Française, au Suriname, au Guyana et au Venezuela.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alapi_%C3%A0_cravate_noire</t>
+          <t>Alapi_à_cravate_noire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 8.1, 2018)[1], cet oiseau est représenté par deux sous-espèces :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 8.1, 2018), cet oiseau est représenté par deux sous-espèces :
 Myrmoderus ferrugineus ferrugineus (Statius Müller, PL, 1776) ;
 Myrmoderus ferrugineus elutus (Todd, 1927).</t>
         </is>
